--- a/Documentation/Taskliste3.xlsx
+++ b/Documentation/Taskliste3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDant\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,17 +48,10 @@
 choix de type de cadrans</t>
   </si>
   <si>
-    <t>Code écrit afin de créer le programme de la montre analog</t>
-  </si>
-  <si>
     <t>Modification des programmes afin d'éviter les conflits de threads dans les programmes</t>
   </si>
   <si>
     <t>Code écrit afin d'afficher plusieurs cadrans analogiques dans la même fenêtre</t>
-  </si>
-  <si>
-    <t>Recherche de documentation sur Internet afin d'implémenter la montre analogue
-dans une fenêtre séparée</t>
   </si>
   <si>
     <t>Recherche de documentation sur Internet afin d'implémenter la montre analogue
@@ -82,12 +75,19 @@
   </si>
   <si>
     <t>Mise à jour des différents fichiers de documentation</t>
+  </si>
+  <si>
+    <t>Recherche de la documentation sur Internet afin d'implémenter la montre analogue
+dans une fenêtre séparée</t>
+  </si>
+  <si>
+    <t>Code écrit afin de créer le programme de la montre analogue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,6 +141,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -408,21 +411,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="71.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="71.796875" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,64 +442,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste3.xlsx
+++ b/Documentation/Taskliste3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDant\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -82,12 +82,15 @@
   </si>
   <si>
     <t>Code écrit afin de créer le programme de la montre analogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprint 3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -411,21 +414,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71.796875" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="71.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,64 +445,136 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste3.xlsx
+++ b/Documentation/Taskliste3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Tasknr.</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t xml:space="preserve">sprint 3 </t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>1/2h</t>
   </si>
 </sst>
 </file>
@@ -129,12 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,14 +429,14 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.75" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="5" max="5" width="40" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -441,11 +452,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -455,8 +469,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -466,8 +486,14 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -477,8 +503,14 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -488,8 +520,14 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -499,8 +537,14 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -510,8 +554,14 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -521,8 +571,14 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -532,8 +588,14 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -543,8 +605,14 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -554,19 +622,31 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -575,6 +655,9 @@
       </c>
       <c r="D13" t="s">
         <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Taskliste3.xlsx
+++ b/Documentation/Taskliste3.xlsx
@@ -634,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>

--- a/Documentation/Taskliste3.xlsx
+++ b/Documentation/Taskliste3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\cours\semestre 3\watch\ProjectWatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/GitProjet/ProjectWatch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Code écrit afin de créer le programme de la montre analogue</t>
   </si>
   <si>
-    <t xml:space="preserve">sprint 3 </t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -94,12 +91,15 @@
   </si>
   <si>
     <t>1/2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -429,17 +429,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71.75" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="40" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -467,13 +467,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -484,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -501,13 +501,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -518,13 +518,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -552,13 +552,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -569,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -586,13 +586,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -603,13 +603,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -620,13 +620,13 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -654,10 +654,10 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
